--- a/Data/Natual Gas Imports.xlsx
+++ b/Data/Natual Gas Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RichardZ/Downloads/TSA_Final_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF80347-7256-CC44-84EB-3D562B2AD578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5E5E7-D89D-E047-8EE7-2E2C4FA3F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{ACA07E31-6EAD-4162-8BDA-0727848217C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{ACA07E31-6EAD-4162-8BDA-0727848217C2}"/>
   </bookViews>
   <sheets>
     <sheet name="imports" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7010" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7011" uniqueCount="213">
   <si>
     <t/>
   </si>
@@ -675,16 +675,21 @@
   <si>
     <t>Import</t>
   </si>
+  <si>
+    <t>2022-03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -695,17 +700,39 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -755,10 +782,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -785,14 +813,16 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1108,10 +1138,10 @@
   <dimension ref="A1:CC171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H168" sqref="H168"/>
+      <selection pane="bottomRight" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1203,244 +1233,244 @@
       <c r="A1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="U1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="10" t="s">
+      <c r="W1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Y1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="AE1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AG1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="AI1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AI1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="AK1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AM1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AM1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AO1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="AQ1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AQ1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="AS1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AS1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="AU1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AU1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AW1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AW1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="AY1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AY1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="BA1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BA1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="BC1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BC1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="BE1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BE1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="BG1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BG1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="BI1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BI1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="BK1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BK1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="BM1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BM1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="BO1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BO1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="BQ1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BQ1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="BS1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BS1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="BU1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BU1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="BW1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BW1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="BY1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="BY1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="CA1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CA1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="CC1" s="10" t="s">
+      <c r="CC1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -35583,7 +35613,7 @@
       </c>
     </row>
     <row r="168" spans="1:81" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="7">
@@ -35822,10 +35852,12 @@
       </c>
     </row>
     <row r="169" spans="1:81" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="3"/>
+      <c r="B169" s="5">
+        <v>44372.7</v>
+      </c>
       <c r="C169" s="3" t="s">
         <v>0</v>
       </c>
@@ -36045,10 +36077,12 @@
       </c>
     </row>
     <row r="170" spans="1:81" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="2"/>
+      <c r="B170" s="6">
+        <v>35595.5</v>
+      </c>
       <c r="C170" s="2" t="s">
         <v>0</v>
       </c>
@@ -36215,13 +36249,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:81" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:81" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B171" s="12">
+        <v>46586</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A171" xr:uid="{9AD41393-4FFE-449F-B713-43C75E8260CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CC172">
     <sortCondition ref="A1:A172"/>
   </sortState>
   <mergeCells count="40">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BV1:BW1"/>
     <mergeCell ref="BX1:BY1"/>
     <mergeCell ref="BZ1:CA1"/>
@@ -36232,37 +36303,8 @@
     <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="BR1:BS1"/>
     <mergeCell ref="BT1:BU1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>